--- a/data/pca/factorExposure/factorExposure_2014-12-05.xlsx
+++ b/data/pca/factorExposure/factorExposure_2014-12-05.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,18 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +704,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,27 +723,51 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>-0.004536429513686191</v>
+        <v>0.009127811949032281</v>
       </c>
       <c r="C2">
-        <v>-0.0473451318037063</v>
+        <v>-0.06262263844836966</v>
       </c>
       <c r="D2">
-        <v>0.1785348660026506</v>
+        <v>0.02603861889821676</v>
       </c>
       <c r="E2">
-        <v>0.1269881601401813</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>-0.1647993233074555</v>
+      </c>
+      <c r="F2">
+        <v>0.03851553765064751</v>
+      </c>
+      <c r="G2">
+        <v>-0.1085478593831093</v>
+      </c>
+      <c r="H2">
+        <v>-0.06313223067247044</v>
+      </c>
+      <c r="I2">
+        <v>-0.07500381238322024</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -745,27 +781,51 @@
       <c r="E3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>-0.02185978330012687</v>
+        <v>0.01492529017038813</v>
       </c>
       <c r="C4">
-        <v>-0.133220170373568</v>
+        <v>-0.1479739154465486</v>
       </c>
       <c r="D4">
-        <v>0.1085805840029626</v>
+        <v>-0.005363951620325598</v>
       </c>
       <c r="E4">
-        <v>0.04765824622768643</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>-0.1047612875230909</v>
+      </c>
+      <c r="F4">
+        <v>-0.07352469572209322</v>
+      </c>
+      <c r="G4">
+        <v>-0.03962610194298317</v>
+      </c>
+      <c r="H4">
+        <v>-0.1027492663041576</v>
+      </c>
+      <c r="I4">
+        <v>0.03025277940624641</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,197 +839,341 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B6">
-        <v>-0.0112700600694576</v>
+        <v>0.02884953300380729</v>
       </c>
       <c r="C6">
-        <v>-0.05939643410390275</v>
+        <v>-0.06850970447593473</v>
       </c>
       <c r="D6">
-        <v>0.08141893733111805</v>
+        <v>0.004729105397561559</v>
       </c>
       <c r="E6">
-        <v>0.07375431062528741</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>-0.1085459597189067</v>
+      </c>
+      <c r="F6">
+        <v>0.03339949252995265</v>
+      </c>
+      <c r="G6">
+        <v>0.01141822059243354</v>
+      </c>
+      <c r="H6">
+        <v>-0.04181796641942146</v>
+      </c>
+      <c r="I6">
+        <v>-0.02800731520295145</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B7">
-        <v>0.01560851651577795</v>
+        <v>0.005339348284276639</v>
       </c>
       <c r="C7">
-        <v>-0.04076512650626057</v>
+        <v>-0.06149372701704899</v>
       </c>
       <c r="D7">
-        <v>0.05389703222046682</v>
+        <v>0.005600282970485139</v>
       </c>
       <c r="E7">
-        <v>0.04583122986288472</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>-0.06599092306550598</v>
+      </c>
+      <c r="F7">
+        <v>-0.02606648102967837</v>
+      </c>
+      <c r="G7">
+        <v>0.03917741174631494</v>
+      </c>
+      <c r="H7">
+        <v>-0.08391560647851994</v>
+      </c>
+      <c r="I7">
+        <v>-0.002960761401637008</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B8">
-        <v>0.01272124598179161</v>
+        <v>-0.008959732724612526</v>
       </c>
       <c r="C8">
-        <v>-0.05924734010360263</v>
+        <v>-0.06670038123233002</v>
       </c>
       <c r="D8">
-        <v>0.08114412421708328</v>
+        <v>-0.01584919938942891</v>
       </c>
       <c r="E8">
-        <v>0.09896642420567781</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>-0.08232338634504695</v>
+      </c>
+      <c r="F8">
+        <v>-0.02935048292818581</v>
+      </c>
+      <c r="G8">
+        <v>-0.07201435251325994</v>
+      </c>
+      <c r="H8">
+        <v>-0.02238178951985069</v>
+      </c>
+      <c r="I8">
+        <v>-0.009432134225710879</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B9">
-        <v>-0.01000870029144518</v>
+        <v>0.008348693661405521</v>
       </c>
       <c r="C9">
-        <v>-0.1147356801928074</v>
+        <v>-0.1194828248154076</v>
       </c>
       <c r="D9">
-        <v>0.08367874446155503</v>
+        <v>-0.004507348527771594</v>
       </c>
       <c r="E9">
-        <v>0.04998453931982991</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>-0.07713963609991611</v>
+      </c>
+      <c r="F9">
+        <v>-0.01709559201673608</v>
+      </c>
+      <c r="G9">
+        <v>-0.00892147962745698</v>
+      </c>
+      <c r="H9">
+        <v>-0.1005134043369301</v>
+      </c>
+      <c r="I9">
+        <v>0.002671771849340232</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B10">
-        <v>-0.2439728713657823</v>
+        <v>0.2475326833595262</v>
       </c>
       <c r="C10">
-        <v>0.07343021502323417</v>
+        <v>0.07538812793879185</v>
       </c>
       <c r="D10">
-        <v>-0.003986447583426621</v>
+        <v>-0.004116561723333152</v>
       </c>
       <c r="E10">
-        <v>-0.09025943026798042</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>0.01718345082952438</v>
+      </c>
+      <c r="F10">
+        <v>-0.008076230797763978</v>
+      </c>
+      <c r="G10">
+        <v>-0.00560076058741295</v>
+      </c>
+      <c r="H10">
+        <v>-0.03286258385787231</v>
+      </c>
+      <c r="I10">
+        <v>0.185974663118064</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B11">
-        <v>-0.001712091005409906</v>
+        <v>0.009998747506862115</v>
       </c>
       <c r="C11">
-        <v>-0.05003270664943284</v>
+        <v>-0.07428577960655708</v>
       </c>
       <c r="D11">
-        <v>0.03959332841152331</v>
+        <v>-0.01155336735430137</v>
       </c>
       <c r="E11">
-        <v>0.03592705040831914</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>-0.04658597285759041</v>
+      </c>
+      <c r="F11">
+        <v>-0.01295716437235353</v>
+      </c>
+      <c r="G11">
+        <v>0.03018100666203902</v>
+      </c>
+      <c r="H11">
+        <v>-0.0403797923146182</v>
+      </c>
+      <c r="I11">
+        <v>-0.002028274985354013</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B12">
-        <v>-0.006856706556948953</v>
+        <v>0.01241005447671678</v>
       </c>
       <c r="C12">
-        <v>-0.05572220171622782</v>
+        <v>-0.0624954351145019</v>
       </c>
       <c r="D12">
-        <v>0.02888542878410606</v>
+        <v>-0.00294343557366627</v>
       </c>
       <c r="E12">
-        <v>0.02460629052546816</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>-0.03251346232235283</v>
+      </c>
+      <c r="F12">
+        <v>0.01520861274336148</v>
+      </c>
+      <c r="G12">
+        <v>0.02857927214957022</v>
+      </c>
+      <c r="H12">
+        <v>-0.04399298124813409</v>
+      </c>
+      <c r="I12">
+        <v>0.008664052931411497</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B13">
-        <v>-0.002336441968409593</v>
+        <v>0.001837451996638813</v>
       </c>
       <c r="C13">
-        <v>-0.06811711001542764</v>
+        <v>-0.1030616713015601</v>
       </c>
       <c r="D13">
-        <v>0.1173745563007419</v>
+        <v>0.02150917940672501</v>
       </c>
       <c r="E13">
-        <v>0.1263054750543825</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>-0.1608925264352785</v>
+      </c>
+      <c r="F13">
+        <v>0.09376115054833599</v>
+      </c>
+      <c r="G13">
+        <v>0.02752885450110689</v>
+      </c>
+      <c r="H13">
+        <v>-0.09496725560109681</v>
+      </c>
+      <c r="I13">
+        <v>0.07975552122532502</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B14">
-        <v>0.007599170482439244</v>
+        <v>0.006239538715720213</v>
       </c>
       <c r="C14">
-        <v>-0.0334609337757534</v>
+        <v>-0.06395203518301634</v>
       </c>
       <c r="D14">
-        <v>0.05581061502038557</v>
+        <v>-0.01548397276289388</v>
       </c>
       <c r="E14">
-        <v>0.06684574842123683</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>-0.09832062035056084</v>
+      </c>
+      <c r="F14">
+        <v>0.02959773856982427</v>
+      </c>
+      <c r="G14">
+        <v>0.05922228950312421</v>
+      </c>
+      <c r="H14">
+        <v>-0.1601833572257504</v>
+      </c>
+      <c r="I14">
+        <v>-0.03093949358358456</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B15">
-        <v>0.001699292327650054</v>
+        <v>-0.002736679313023108</v>
       </c>
       <c r="C15">
-        <v>-0.04978624521316306</v>
+        <v>-0.0640823072369535</v>
       </c>
       <c r="D15">
-        <v>0.07297263855618641</v>
+        <v>8.519903882673354e-05</v>
       </c>
       <c r="E15">
-        <v>0.07116000014486153</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>-0.07031197783504592</v>
+      </c>
+      <c r="F15">
+        <v>-0.008576434797159988</v>
+      </c>
+      <c r="G15">
+        <v>0.01465649376279114</v>
+      </c>
+      <c r="H15">
+        <v>-0.05070142396110896</v>
+      </c>
+      <c r="I15">
+        <v>-0.01589369534368189</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B16">
-        <v>-0.004482213645938659</v>
+        <v>0.009991211853487805</v>
       </c>
       <c r="C16">
-        <v>-0.04487657033581124</v>
+        <v>-0.06246935035941106</v>
       </c>
       <c r="D16">
-        <v>0.03097056141892474</v>
+        <v>-0.003377347492967652</v>
       </c>
       <c r="E16">
-        <v>0.02493409340027679</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>-0.03313105531704129</v>
+      </c>
+      <c r="F16">
+        <v>0.001019842890309928</v>
+      </c>
+      <c r="G16">
+        <v>0.03126398191633516</v>
+      </c>
+      <c r="H16">
+        <v>-0.03763819024780239</v>
+      </c>
+      <c r="I16">
+        <v>0.005972018220026994</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1187,22 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,10 +1216,22 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1017,129 +1245,225 @@
       <c r="E19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B20">
-        <v>0.005964833042697647</v>
+        <v>0.002867645320060765</v>
       </c>
       <c r="C20">
-        <v>-0.04829862421768108</v>
+        <v>-0.074622475625024</v>
       </c>
       <c r="D20">
-        <v>0.07737037355249501</v>
+        <v>0.01080979211438828</v>
       </c>
       <c r="E20">
-        <v>0.0382968076555085</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>-0.06906302540486825</v>
+      </c>
+      <c r="F20">
+        <v>-0.01778359958640204</v>
+      </c>
+      <c r="G20">
+        <v>0.06168979540225628</v>
+      </c>
+      <c r="H20">
+        <v>-0.06741733069208133</v>
+      </c>
+      <c r="I20">
+        <v>-0.0005455949933210513</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B21">
-        <v>-0.001903774161756229</v>
+        <v>0.005695063471947271</v>
       </c>
       <c r="C21">
-        <v>-0.06451914239699033</v>
+        <v>-0.07292061212599793</v>
       </c>
       <c r="D21">
-        <v>0.1139408889112686</v>
+        <v>0.008408805456275743</v>
       </c>
       <c r="E21">
-        <v>0.05147874485586879</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>-0.1024906086997621</v>
+      </c>
+      <c r="F21">
+        <v>0.0738430702421163</v>
+      </c>
+      <c r="G21">
+        <v>-0.01655904328027623</v>
+      </c>
+      <c r="H21">
+        <v>-0.1780918105929339</v>
+      </c>
+      <c r="I21">
+        <v>0.04405405743212903</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B22">
-        <v>0.0134908589957074</v>
+        <v>-0.01613488275780368</v>
       </c>
       <c r="C22">
-        <v>-0.08986607195292776</v>
+        <v>-0.1243076400742297</v>
       </c>
       <c r="D22">
-        <v>0.2761074029202241</v>
+        <v>0.06266555614405042</v>
       </c>
       <c r="E22">
-        <v>0.1031937951886733</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>-0.3057475551767142</v>
+      </c>
+      <c r="F22">
+        <v>-0.1389943456980579</v>
+      </c>
+      <c r="G22">
+        <v>-0.3163794008501164</v>
+      </c>
+      <c r="H22">
+        <v>0.4155738958721734</v>
+      </c>
+      <c r="I22">
+        <v>0.0374889457577752</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B23">
-        <v>0.01386337885950362</v>
+        <v>-0.01273236275338852</v>
       </c>
       <c r="C23">
-        <v>-0.09168147906666317</v>
+        <v>-0.1284188400040691</v>
       </c>
       <c r="D23">
-        <v>0.2750334543314957</v>
+        <v>0.06526654377437004</v>
       </c>
       <c r="E23">
-        <v>0.1025061262615617</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>-0.3012526694617797</v>
+      </c>
+      <c r="F23">
+        <v>-0.1326489075948118</v>
+      </c>
+      <c r="G23">
+        <v>-0.3070638658030689</v>
+      </c>
+      <c r="H23">
+        <v>0.3881431480410246</v>
+      </c>
+      <c r="I23">
+        <v>0.03943896480255318</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B24">
-        <v>-0.001916250094944969</v>
+        <v>0.0114634638371982</v>
       </c>
       <c r="C24">
-        <v>-0.07523559518558151</v>
+        <v>-0.07963112856006868</v>
       </c>
       <c r="D24">
-        <v>0.03308308987489803</v>
+        <v>-0.01704241605973833</v>
       </c>
       <c r="E24">
-        <v>0.04019207877567186</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>-0.04131943661893672</v>
+      </c>
+      <c r="F24">
+        <v>-0.007378546351769591</v>
+      </c>
+      <c r="G24">
+        <v>0.02947428783684818</v>
+      </c>
+      <c r="H24">
+        <v>-0.05764382482826291</v>
+      </c>
+      <c r="I24">
+        <v>0.0004291598161247312</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B25">
-        <v>-0.006541654263117708</v>
+        <v>0.01580284782288832</v>
       </c>
       <c r="C25">
-        <v>-0.06408315404081302</v>
+        <v>-0.07327575853824704</v>
       </c>
       <c r="D25">
-        <v>0.0327487463205041</v>
+        <v>-0.008746753191042974</v>
       </c>
       <c r="E25">
-        <v>0.01701772647186879</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>-0.03295374395510775</v>
+      </c>
+      <c r="F25">
+        <v>-0.009160562005202598</v>
+      </c>
+      <c r="G25">
+        <v>0.02729155904024193</v>
+      </c>
+      <c r="H25">
+        <v>-0.0388781233933087</v>
+      </c>
+      <c r="I25">
+        <v>0.01979165174799207</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B26">
-        <v>-0.001442612779419571</v>
+        <v>0.01643377077014167</v>
       </c>
       <c r="C26">
-        <v>-0.03497801525043729</v>
+        <v>-0.05604820916517818</v>
       </c>
       <c r="D26">
-        <v>0.04487450929269891</v>
+        <v>-0.03367961373131717</v>
       </c>
       <c r="E26">
-        <v>0.05915330910976647</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>-0.06939426871087244</v>
+      </c>
+      <c r="F26">
+        <v>0.0005845612429053441</v>
+      </c>
+      <c r="G26">
+        <v>0.01956481878870476</v>
+      </c>
+      <c r="H26">
+        <v>-0.1313043961302903</v>
+      </c>
+      <c r="I26">
+        <v>0.01363957328942641</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,163 +1477,283 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B28">
-        <v>-0.3193381551200465</v>
+        <v>0.3136384666702046</v>
       </c>
       <c r="C28">
-        <v>0.08783742848472381</v>
+        <v>0.09600568777246754</v>
       </c>
       <c r="D28">
-        <v>-0.002441478205595564</v>
+        <v>0.01292895979783687</v>
       </c>
       <c r="E28">
-        <v>-0.08015864959786108</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>0.01504218725153942</v>
+      </c>
+      <c r="F28">
+        <v>-0.04640721766088463</v>
+      </c>
+      <c r="G28">
+        <v>-0.07480857920529639</v>
+      </c>
+      <c r="H28">
+        <v>-0.06827149914528027</v>
+      </c>
+      <c r="I28">
+        <v>0.1925649222453383</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B29">
-        <v>0.004232269153010735</v>
+        <v>0.002836444561540793</v>
       </c>
       <c r="C29">
-        <v>-0.04076563458580228</v>
+        <v>-0.06949369110126034</v>
       </c>
       <c r="D29">
-        <v>0.07107364594105614</v>
+        <v>-0.01065564629925206</v>
       </c>
       <c r="E29">
-        <v>0.08269142785580491</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>-0.115488370612631</v>
+      </c>
+      <c r="F29">
+        <v>0.0412665835850491</v>
+      </c>
+      <c r="G29">
+        <v>0.0830434376259674</v>
+      </c>
+      <c r="H29">
+        <v>-0.2024134419832604</v>
+      </c>
+      <c r="I29">
+        <v>-0.05076397484463275</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B30">
-        <v>-0.01690945839482331</v>
+        <v>0.01932391333158873</v>
       </c>
       <c r="C30">
-        <v>-0.1341135700216186</v>
+        <v>-0.1420222532515898</v>
       </c>
       <c r="D30">
-        <v>0.1174649547653926</v>
+        <v>-0.009267541402787729</v>
       </c>
       <c r="E30">
-        <v>0.091612370394136</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>-0.1086061510612776</v>
+      </c>
+      <c r="F30">
+        <v>-0.02996113469407317</v>
+      </c>
+      <c r="G30">
+        <v>-0.02008745726471266</v>
+      </c>
+      <c r="H30">
+        <v>-0.0367170449008073</v>
+      </c>
+      <c r="I30">
+        <v>-0.0292272923736005</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B31">
-        <v>0.007526129892644836</v>
+        <v>0.004536654645367537</v>
       </c>
       <c r="C31">
-        <v>-0.08166681864935947</v>
+        <v>-0.09167492831851687</v>
       </c>
       <c r="D31">
-        <v>0.001423074934162318</v>
+        <v>-0.02187144378048752</v>
       </c>
       <c r="E31">
-        <v>0.02715423978716179</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>-0.01502060495063266</v>
+      </c>
+      <c r="F31">
+        <v>-0.002197028965039291</v>
+      </c>
+      <c r="G31">
+        <v>-0.01461528347187047</v>
+      </c>
+      <c r="H31">
+        <v>-0.05375282256508594</v>
+      </c>
+      <c r="I31">
+        <v>0.02255558058695928</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B32">
-        <v>-0.01325639768560039</v>
+        <v>0.01717875836896542</v>
       </c>
       <c r="C32">
-        <v>-0.05543442505605656</v>
+        <v>-0.0621872400086886</v>
       </c>
       <c r="D32">
-        <v>0.1359506253548132</v>
+        <v>0.02364803067203246</v>
       </c>
       <c r="E32">
-        <v>0.05091163210864769</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>-0.1133433498953294</v>
+      </c>
+      <c r="F32">
+        <v>0.02812980804914619</v>
+      </c>
+      <c r="G32">
+        <v>-0.03867507427956942</v>
+      </c>
+      <c r="H32">
+        <v>-0.1041948530369856</v>
+      </c>
+      <c r="I32">
+        <v>0.2083369944633107</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B33">
-        <v>0.004681197656510363</v>
+        <v>0.006388668860533941</v>
       </c>
       <c r="C33">
-        <v>-0.07857444214334772</v>
+        <v>-0.1051990443153085</v>
       </c>
       <c r="D33">
-        <v>0.05985221285228891</v>
+        <v>0.001309752214925208</v>
       </c>
       <c r="E33">
-        <v>0.0548125536600382</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>-0.07495727414485784</v>
+      </c>
+      <c r="F33">
+        <v>-0.0008199733646529792</v>
+      </c>
+      <c r="G33">
+        <v>0.02693975111195964</v>
+      </c>
+      <c r="H33">
+        <v>-0.06156433761561437</v>
+      </c>
+      <c r="I33">
+        <v>0.03124739670670873</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B34">
-        <v>0.001444027928405901</v>
+        <v>0.01031942433942861</v>
       </c>
       <c r="C34">
-        <v>-0.05161941055398114</v>
+        <v>-0.05582321616800906</v>
       </c>
       <c r="D34">
-        <v>0.01687068600050159</v>
+        <v>-0.008907985466206461</v>
       </c>
       <c r="E34">
-        <v>0.02178123238609684</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>-0.02380374736125408</v>
+      </c>
+      <c r="F34">
+        <v>0.009808912426909766</v>
+      </c>
+      <c r="G34">
+        <v>0.02885226180600594</v>
+      </c>
+      <c r="H34">
+        <v>-0.01575544363295327</v>
+      </c>
+      <c r="I34">
+        <v>0.02127936993346802</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B35">
-        <v>-0.0008847709138593161</v>
+        <v>0.005913928299172773</v>
       </c>
       <c r="C35">
-        <v>-0.005126182596011498</v>
+        <v>-0.03188411094835761</v>
       </c>
       <c r="D35">
-        <v>0.01162965498088231</v>
+        <v>0.0001459086969269011</v>
       </c>
       <c r="E35">
-        <v>0.004957711905703366</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>-0.04373323417000834</v>
+      </c>
+      <c r="F35">
+        <v>0.007333681157473226</v>
+      </c>
+      <c r="G35">
+        <v>0.03721622110561215</v>
+      </c>
+      <c r="H35">
+        <v>-0.114709004105291</v>
+      </c>
+      <c r="I35">
+        <v>-0.0009892955504028221</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B36">
-        <v>-0.001072483826291997</v>
+        <v>0.009174914682964604</v>
       </c>
       <c r="C36">
-        <v>-0.03440306272634566</v>
+        <v>-0.04580399906448539</v>
       </c>
       <c r="D36">
-        <v>0.04139653892474226</v>
+        <v>-0.0215241575030325</v>
       </c>
       <c r="E36">
-        <v>0.06552517989378999</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>-0.06629727921326337</v>
+      </c>
+      <c r="F36">
+        <v>-0.001121485379100221</v>
+      </c>
+      <c r="G36">
+        <v>0.01426776478624007</v>
+      </c>
+      <c r="H36">
+        <v>-0.07565683520185759</v>
+      </c>
+      <c r="I36">
+        <v>0.002750519247578731</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,78 +1767,138 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B38">
-        <v>-0.003082175838711868</v>
+        <v>0.005307749148373054</v>
       </c>
       <c r="C38">
-        <v>-0.02775571695023981</v>
+        <v>-0.05330963268218446</v>
       </c>
       <c r="D38">
-        <v>0.04598797080838567</v>
+        <v>-0.006883321808408968</v>
       </c>
       <c r="E38">
-        <v>0.04547072166789278</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>-0.07169842577566041</v>
+      </c>
+      <c r="F38">
+        <v>-0.04666693601057528</v>
+      </c>
+      <c r="G38">
+        <v>0.007590111231947291</v>
+      </c>
+      <c r="H38">
+        <v>-0.06273611669921562</v>
+      </c>
+      <c r="I38">
+        <v>0.03848331596404028</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B39">
-        <v>-0.002313227598785937</v>
+        <v>0.008539741924534477</v>
       </c>
       <c r="C39">
-        <v>-0.1033896305621589</v>
+        <v>-0.1204588307594055</v>
       </c>
       <c r="D39">
-        <v>0.08263762561751503</v>
+        <v>-0.01893655355746936</v>
       </c>
       <c r="E39">
-        <v>0.06938385047622343</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>-0.07400383223291565</v>
+      </c>
+      <c r="F39">
+        <v>0.01219844385452182</v>
+      </c>
+      <c r="G39">
+        <v>0.04522430844288253</v>
+      </c>
+      <c r="H39">
+        <v>-0.05170029335475996</v>
+      </c>
+      <c r="I39">
+        <v>-0.04605955204425025</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B40">
-        <v>0.001121978516075329</v>
+        <v>0.008978110402253133</v>
       </c>
       <c r="C40">
-        <v>-0.01610021020860846</v>
+        <v>-0.05411298743100739</v>
       </c>
       <c r="D40">
-        <v>0.07938678369676094</v>
+        <v>0.007817502949937898</v>
       </c>
       <c r="E40">
-        <v>0.1070800555592746</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>-0.1346998214122572</v>
+      </c>
+      <c r="F40">
+        <v>0.02269088645759026</v>
+      </c>
+      <c r="G40">
+        <v>0.06680133284287837</v>
+      </c>
+      <c r="H40">
+        <v>0.003624422992136446</v>
+      </c>
+      <c r="I40">
+        <v>0.007501852656171984</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B41">
-        <v>-0.002880916339363589</v>
+        <v>0.01610943491654565</v>
       </c>
       <c r="C41">
-        <v>-0.02646778398645575</v>
+        <v>-0.04829975069237959</v>
       </c>
       <c r="D41">
-        <v>-0.002484512371364747</v>
+        <v>-0.003603695549671392</v>
       </c>
       <c r="E41">
-        <v>-0.005446389848118396</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>-0.005024736610982463</v>
+      </c>
+      <c r="F41">
+        <v>-0.003548737252817645</v>
+      </c>
+      <c r="G41">
+        <v>0.01191400434029798</v>
+      </c>
+      <c r="H41">
+        <v>-0.03389393266715152</v>
+      </c>
+      <c r="I41">
+        <v>0.04726553652865265</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1408,44 +1912,80 @@
       <c r="E42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B43">
-        <v>0.007119289065720749</v>
+        <v>0.008148043254855061</v>
       </c>
       <c r="C43">
-        <v>-0.01754117299889879</v>
+        <v>-0.04048680277860279</v>
       </c>
       <c r="D43">
-        <v>0.01989112038340434</v>
+        <v>-0.01202421212280652</v>
       </c>
       <c r="E43">
-        <v>0.02075430356610386</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>-0.03198940683480286</v>
+      </c>
+      <c r="F43">
+        <v>-0.01361987819153385</v>
+      </c>
+      <c r="G43">
+        <v>0.0217283814283286</v>
+      </c>
+      <c r="H43">
+        <v>-0.05024505590825656</v>
+      </c>
+      <c r="I43">
+        <v>0.02291750054391552</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B44">
-        <v>-0.01632814838141241</v>
+        <v>0.006762094193289759</v>
       </c>
       <c r="C44">
-        <v>-0.08541943443198674</v>
+        <v>-0.09155834574683648</v>
       </c>
       <c r="D44">
-        <v>0.1000645400380777</v>
+        <v>-0.02146504635241408</v>
       </c>
       <c r="E44">
-        <v>0.06981464739380037</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>-0.1014481451091396</v>
+      </c>
+      <c r="F44">
+        <v>-0.009347606937413313</v>
+      </c>
+      <c r="G44">
+        <v>-0.004170964188832223</v>
+      </c>
+      <c r="H44">
+        <v>-0.02963903622774097</v>
+      </c>
+      <c r="I44">
+        <v>-0.02739782614064921</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,112 +1999,196 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B46">
-        <v>0.00529111310912016</v>
+        <v>-0.002086839496131586</v>
       </c>
       <c r="C46">
-        <v>-0.04584188232797296</v>
+        <v>-0.06032118803482889</v>
       </c>
       <c r="D46">
-        <v>0.06129936349903001</v>
+        <v>-0.0144493711221454</v>
       </c>
       <c r="E46">
-        <v>0.08764522875169202</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>-0.07722505086899846</v>
+      </c>
+      <c r="F46">
+        <v>-0.001293325578904063</v>
+      </c>
+      <c r="G46">
+        <v>0.05073584133996752</v>
+      </c>
+      <c r="H46">
+        <v>-0.121817364991029</v>
+      </c>
+      <c r="I46">
+        <v>-0.01171574656661913</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B47">
-        <v>-0.01759298987190672</v>
+        <v>0.02152576544778921</v>
       </c>
       <c r="C47">
-        <v>-0.1253580101554498</v>
+        <v>-0.1087707860730973</v>
       </c>
       <c r="D47">
-        <v>-0.01274221676480528</v>
+        <v>-0.02567561124247074</v>
       </c>
       <c r="E47">
-        <v>-0.02491615687325185</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>0.01536824112215584</v>
+      </c>
+      <c r="F47">
+        <v>-0.01236064706546872</v>
+      </c>
+      <c r="G47">
+        <v>-0.005734420273885918</v>
+      </c>
+      <c r="H47">
+        <v>-0.07803886019979633</v>
+      </c>
+      <c r="I47">
+        <v>0.03398138679108215</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B48">
-        <v>-0.006933977065911359</v>
+        <v>0.01507755544589316</v>
       </c>
       <c r="C48">
-        <v>-0.03425683330781221</v>
+        <v>-0.04937485990847786</v>
       </c>
       <c r="D48">
-        <v>0.02971376286193487</v>
+        <v>-0.03218694762013181</v>
       </c>
       <c r="E48">
-        <v>0.08219690119046198</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>-0.06998846364267934</v>
+      </c>
+      <c r="F48">
+        <v>-0.008318102780422429</v>
+      </c>
+      <c r="G48">
+        <v>0.01790738865861171</v>
+      </c>
+      <c r="H48">
+        <v>-0.1240970398831425</v>
+      </c>
+      <c r="I48">
+        <v>-0.004267306432648075</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>0.004017051944283533</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>-0.0091951441011346</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>-0.008436539506983729</v>
       </c>
       <c r="E49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
+        <v>0.001830431654458753</v>
+      </c>
+      <c r="F49">
+        <v>0.008501220687190314</v>
+      </c>
+      <c r="G49">
+        <v>0.02112223120985551</v>
+      </c>
+      <c r="H49">
+        <v>0.00617818093585229</v>
+      </c>
+      <c r="I49">
+        <v>0.001525294229277802</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B50">
-        <v>-0.0002200102072661845</v>
+        <v>0.008283965222330466</v>
       </c>
       <c r="C50">
-        <v>-0.05065957454850621</v>
+        <v>-0.06924303737854658</v>
       </c>
       <c r="D50">
-        <v>0.02280659051660019</v>
+        <v>-0.002292642873370643</v>
       </c>
       <c r="E50">
-        <v>0.02216300303870189</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>-0.0282939846771748</v>
+      </c>
+      <c r="F50">
+        <v>-0.01683155852074815</v>
+      </c>
+      <c r="G50">
+        <v>-0.009699521969301112</v>
+      </c>
+      <c r="H50">
+        <v>-0.05759892648054499</v>
+      </c>
+      <c r="I50">
+        <v>0.04681259577559962</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B51">
-        <v>-0.00298078397889213</v>
+        <v>-0.004692287283585954</v>
       </c>
       <c r="C51">
-        <v>-0.0335918291377707</v>
+        <v>-0.03508869989240655</v>
       </c>
       <c r="D51">
-        <v>0.07917359412583805</v>
+        <v>-0.0003981433346694666</v>
       </c>
       <c r="E51">
-        <v>0.05596645613046099</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>-0.0646491954161931</v>
+      </c>
+      <c r="F51">
+        <v>0.004082188710983429</v>
+      </c>
+      <c r="G51">
+        <v>-0.004557890186607411</v>
+      </c>
+      <c r="H51">
+        <v>-0.1071930102099375</v>
+      </c>
+      <c r="I51">
+        <v>-0.02849684204248394</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,78 +2202,138 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B53">
-        <v>-0.05332983703987645</v>
+        <v>0.05386652077380089</v>
       </c>
       <c r="C53">
-        <v>-0.1635993119553535</v>
+        <v>-0.1526774707534285</v>
       </c>
       <c r="D53">
-        <v>-0.05215679157243288</v>
+        <v>-0.04654275574053773</v>
       </c>
       <c r="E53">
-        <v>-0.02304698486766406</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>0.08488752918049887</v>
+      </c>
+      <c r="F53">
+        <v>-0.008435225297196263</v>
+      </c>
+      <c r="G53">
+        <v>-0.03010677542758899</v>
+      </c>
+      <c r="H53">
+        <v>-0.01418156950633979</v>
+      </c>
+      <c r="I53">
+        <v>0.01954269557033815</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B54">
-        <v>-0.005210323940091986</v>
+        <v>0.01359780126451223</v>
       </c>
       <c r="C54">
-        <v>-0.03845843096404607</v>
+        <v>-0.06095702524037264</v>
       </c>
       <c r="D54">
-        <v>0.06760339024541535</v>
+        <v>0.01914927751512437</v>
       </c>
       <c r="E54">
-        <v>0.01861217021403707</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>-0.05249316748722598</v>
+      </c>
+      <c r="F54">
+        <v>-0.01231639807201709</v>
+      </c>
+      <c r="G54">
+        <v>0.01227655244210754</v>
+      </c>
+      <c r="H54">
+        <v>-0.09091724533502184</v>
+      </c>
+      <c r="I54">
+        <v>-0.03509795269077497</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B55">
-        <v>-0.03937547500255651</v>
+        <v>0.03311016062136826</v>
       </c>
       <c r="C55">
-        <v>-0.1237091407509092</v>
+        <v>-0.108392432787819</v>
       </c>
       <c r="D55">
-        <v>-0.04839731152383103</v>
+        <v>-0.04963108669271522</v>
       </c>
       <c r="E55">
-        <v>-0.001597876062675049</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>0.06575715513744376</v>
+      </c>
+      <c r="F55">
+        <v>0.003448404559448116</v>
+      </c>
+      <c r="G55">
+        <v>-0.02163880099662941</v>
+      </c>
+      <c r="H55">
+        <v>-0.02157693258734418</v>
+      </c>
+      <c r="I55">
+        <v>-0.01979508357042843</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B56">
-        <v>-0.05523748134146918</v>
+        <v>0.04806270655297921</v>
       </c>
       <c r="C56">
-        <v>-0.1992882770341537</v>
+        <v>-0.1823293002778207</v>
       </c>
       <c r="D56">
-        <v>-0.07426918847671977</v>
+        <v>-0.07135597314010772</v>
       </c>
       <c r="E56">
-        <v>-0.04663669711528941</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>0.1171907974960943</v>
+      </c>
+      <c r="F56">
+        <v>0.0007530088879523036</v>
+      </c>
+      <c r="G56">
+        <v>-0.07199877772762896</v>
+      </c>
+      <c r="H56">
+        <v>-0.00162941743690271</v>
+      </c>
+      <c r="I56">
+        <v>0.01798050601464446</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1663,214 +2347,370 @@
       <c r="E57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B58">
-        <v>-0.01023034201757075</v>
+        <v>0.007882239482068648</v>
       </c>
       <c r="C58">
-        <v>-0.1258663076499448</v>
+        <v>-0.150297684696874</v>
       </c>
       <c r="D58">
-        <v>0.2864736955503911</v>
+        <v>0.04726456459393676</v>
       </c>
       <c r="E58">
-        <v>0.09676462577322373</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>-0.2520760655933344</v>
+      </c>
+      <c r="F58">
+        <v>-0.07664500436676151</v>
+      </c>
+      <c r="G58">
+        <v>-0.2367367249293847</v>
+      </c>
+      <c r="H58">
+        <v>0.003330350838120396</v>
+      </c>
+      <c r="I58">
+        <v>-0.02079797767999652</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B59">
-        <v>-0.2525087202375841</v>
+        <v>0.2731193130376719</v>
       </c>
       <c r="C59">
-        <v>0.03133628502367539</v>
+        <v>0.0375332526145735</v>
       </c>
       <c r="D59">
-        <v>0.07482130706652654</v>
+        <v>0.01657757335412408</v>
       </c>
       <c r="E59">
-        <v>-0.00276289693412504</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>-0.04735866528695241</v>
+      </c>
+      <c r="F59">
+        <v>0.01883973753255559</v>
+      </c>
+      <c r="G59">
+        <v>-0.01978116347083678</v>
+      </c>
+      <c r="H59">
+        <v>0.02109156108619567</v>
+      </c>
+      <c r="I59">
+        <v>0.0986403643205514</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B60">
-        <v>-0.1207777649295788</v>
+        <v>0.1458376625176897</v>
       </c>
       <c r="C60">
-        <v>-0.1558199223585264</v>
+        <v>-0.164763757826866</v>
       </c>
       <c r="D60">
-        <v>0.003997418323856527</v>
+        <v>-0.02080772911950939</v>
       </c>
       <c r="E60">
-        <v>0.04985238230593132</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>-0.016667803629509</v>
+      </c>
+      <c r="F60">
+        <v>0.1213687440948277</v>
+      </c>
+      <c r="G60">
+        <v>0.2654834082515548</v>
+      </c>
+      <c r="H60">
+        <v>0.2760079716037836</v>
+      </c>
+      <c r="I60">
+        <v>-0.05389748700823533</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B61">
-        <v>-0.007196452781212379</v>
+        <v>0.01473505859226706</v>
       </c>
       <c r="C61">
-        <v>-0.07597419687161842</v>
+        <v>-0.09927088187203617</v>
       </c>
       <c r="D61">
-        <v>0.04571767180276329</v>
+        <v>-0.01919517366193977</v>
       </c>
       <c r="E61">
-        <v>0.05666679884898704</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>-0.05496391958853356</v>
+      </c>
+      <c r="F61">
+        <v>0.002635472301969193</v>
+      </c>
+      <c r="G61">
+        <v>0.05518834953632898</v>
+      </c>
+      <c r="H61">
+        <v>-0.05779668775843012</v>
+      </c>
+      <c r="I61">
+        <v>-0.01848672439447635</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>-0.0006476189724751237</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>-0.0006094976173311434</v>
       </c>
       <c r="D62">
-        <v>0</v>
+        <v>-0.001331403210834993</v>
       </c>
       <c r="E62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
+        <v>0.000528499047095727</v>
+      </c>
+      <c r="F62">
+        <v>-0.001104169936118514</v>
+      </c>
+      <c r="G62">
+        <v>-0.002314994061808664</v>
+      </c>
+      <c r="H62">
+        <v>-0.005394828216999592</v>
+      </c>
+      <c r="I62">
+        <v>0.002447238084392532</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B63">
-        <v>0.007544122850174154</v>
+        <v>0.01552998726494795</v>
       </c>
       <c r="C63">
-        <v>-0.05307184068375466</v>
+        <v>-0.0714304042871622</v>
       </c>
       <c r="D63">
-        <v>0.0390564986354897</v>
+        <v>-0.02376338914154068</v>
       </c>
       <c r="E63">
-        <v>0.03257972232201342</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>-0.05155461979635821</v>
+      </c>
+      <c r="F63">
+        <v>0.004000974388080908</v>
+      </c>
+      <c r="G63">
+        <v>0.03411608239905075</v>
+      </c>
+      <c r="H63">
+        <v>-0.07704833491513545</v>
+      </c>
+      <c r="I63">
+        <v>0.01763652468323997</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B64">
-        <v>-0.008010656543486002</v>
+        <v>0.01191890262792658</v>
       </c>
       <c r="C64">
-        <v>-0.1234576477227683</v>
+        <v>-0.1072355676463903</v>
       </c>
       <c r="D64">
-        <v>-0.005494682923459907</v>
+        <v>-0.01969045802910939</v>
       </c>
       <c r="E64">
-        <v>0.0470436249156787</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>-0.01599156317633885</v>
+      </c>
+      <c r="F64">
+        <v>-0.03004875534098824</v>
+      </c>
+      <c r="G64">
+        <v>0.02635973368613474</v>
+      </c>
+      <c r="H64">
+        <v>0.005395817230873157</v>
+      </c>
+      <c r="I64">
+        <v>0.01367025397941442</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B65">
-        <v>-0.01579374480175348</v>
+        <v>0.02412775731711472</v>
       </c>
       <c r="C65">
-        <v>-0.06373518411883854</v>
+        <v>-0.08331499547125112</v>
       </c>
       <c r="D65">
-        <v>0.07068528508753877</v>
+        <v>0.01379139948182594</v>
       </c>
       <c r="E65">
-        <v>0.05939019100455524</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>-0.09465003194087905</v>
+      </c>
+      <c r="F65">
+        <v>-0.007436716378365919</v>
+      </c>
+      <c r="G65">
+        <v>0.0702966959089369</v>
+      </c>
+      <c r="H65">
+        <v>0.006747926079744941</v>
+      </c>
+      <c r="I65">
+        <v>-0.02926423522207565</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B66">
-        <v>5.867928553793078e-05</v>
+        <v>0.006684112296213299</v>
       </c>
       <c r="C66">
-        <v>-0.1242281868443712</v>
+        <v>-0.1497625359306104</v>
       </c>
       <c r="D66">
-        <v>0.1171340235780386</v>
+        <v>0.003521147976753284</v>
       </c>
       <c r="E66">
-        <v>0.08002404719824201</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>-0.09282707322277393</v>
+      </c>
+      <c r="F66">
+        <v>0.002368714846061855</v>
+      </c>
+      <c r="G66">
+        <v>0.02344237417172343</v>
+      </c>
+      <c r="H66">
+        <v>-0.05091166602168676</v>
+      </c>
+      <c r="I66">
+        <v>-0.04158481560275484</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B67">
-        <v>-0.01379626939244242</v>
+        <v>0.01604244177957965</v>
       </c>
       <c r="C67">
-        <v>-0.02829461908622688</v>
+        <v>-0.04979962665807389</v>
       </c>
       <c r="D67">
-        <v>-0.003856845048549331</v>
+        <v>-0.02166898320817474</v>
       </c>
       <c r="E67">
-        <v>0.03574452154657631</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>-0.03727059538714356</v>
+      </c>
+      <c r="F67">
+        <v>-0.03560666606501399</v>
+      </c>
+      <c r="G67">
+        <v>0.04022461536273048</v>
+      </c>
+      <c r="H67">
+        <v>-0.04072622653987591</v>
+      </c>
+      <c r="I67">
+        <v>0.0245358397794588</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B68">
-        <v>-0.2522534465731254</v>
+        <v>0.2838265786643378</v>
       </c>
       <c r="C68">
-        <v>0.03699656883358519</v>
+        <v>0.0409506517069872</v>
       </c>
       <c r="D68">
-        <v>0.05056367137022462</v>
+        <v>0.03602708975086953</v>
       </c>
       <c r="E68">
-        <v>-0.01458378657204153</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>-0.03824731215227623</v>
+      </c>
+      <c r="F68">
+        <v>-0.01199258568850564</v>
+      </c>
+      <c r="G68">
+        <v>-0.05559157636592613</v>
+      </c>
+      <c r="H68">
+        <v>0.02338497711673168</v>
+      </c>
+      <c r="I68">
+        <v>0.1012762573826393</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B69">
-        <v>-0.01755029012626299</v>
+        <v>0.01024112999119497</v>
       </c>
       <c r="C69">
-        <v>-0.1209201786259693</v>
+        <v>-0.09091631047368394</v>
       </c>
       <c r="D69">
-        <v>-0.02160048432727647</v>
+        <v>-0.02411683674711798</v>
       </c>
       <c r="E69">
-        <v>0.02527660540784796</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>0.01416959236805364</v>
+      </c>
+      <c r="F69">
+        <v>-0.01100980852702867</v>
+      </c>
+      <c r="G69">
+        <v>0.001869002199469264</v>
+      </c>
+      <c r="H69">
+        <v>-0.04857578376350763</v>
+      </c>
+      <c r="I69">
+        <v>0.03414567091794241</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1884,435 +2724,747 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B71">
-        <v>-0.2666916027379966</v>
+        <v>0.2712167681392607</v>
       </c>
       <c r="C71">
-        <v>0.06491876141361033</v>
+        <v>0.06648410615342805</v>
       </c>
       <c r="D71">
-        <v>0.0464271355780594</v>
+        <v>0.02179874865005334</v>
       </c>
       <c r="E71">
-        <v>-0.03703081723528481</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>-0.03786392350206137</v>
+      </c>
+      <c r="F71">
+        <v>-0.03152571147685369</v>
+      </c>
+      <c r="G71">
+        <v>-0.008670628488894121</v>
+      </c>
+      <c r="H71">
+        <v>-0.06490539322273627</v>
+      </c>
+      <c r="I71">
+        <v>0.1168631910751175</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B72">
-        <v>-0.0570926454967872</v>
+        <v>0.05768883755797864</v>
       </c>
       <c r="C72">
-        <v>-0.1632491990238253</v>
+        <v>-0.1544356306192984</v>
       </c>
       <c r="D72">
-        <v>0.03284494859562973</v>
+        <v>-0.01320525203003994</v>
       </c>
       <c r="E72">
-        <v>0.110079168977853</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>-0.01635129865186726</v>
+      </c>
+      <c r="F72">
+        <v>0.01521650239931446</v>
+      </c>
+      <c r="G72">
+        <v>0.04529717232380052</v>
+      </c>
+      <c r="H72">
+        <v>0.04329849204358886</v>
+      </c>
+      <c r="I72">
+        <v>-0.08676060428467229</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B73">
-        <v>-0.1035060367145002</v>
+        <v>0.1448042170401315</v>
       </c>
       <c r="C73">
-        <v>-0.1692435449880956</v>
+        <v>-0.2048734533753377</v>
       </c>
       <c r="D73">
-        <v>-0.008879297700782518</v>
+        <v>-0.0374854136958777</v>
       </c>
       <c r="E73">
-        <v>0.06417213730358858</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>-0.02528130879715955</v>
+      </c>
+      <c r="F73">
+        <v>0.1457878337199126</v>
+      </c>
+      <c r="G73">
+        <v>0.4374226563604293</v>
+      </c>
+      <c r="H73">
+        <v>0.2741200358146912</v>
+      </c>
+      <c r="I73">
+        <v>0.02628718396190287</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B74">
-        <v>-0.04444925787893875</v>
+        <v>0.04144226875571665</v>
       </c>
       <c r="C74">
-        <v>-0.1256960654359876</v>
+        <v>-0.1172093793088205</v>
       </c>
       <c r="D74">
-        <v>-0.07400267446387322</v>
+        <v>-0.0472316567165053</v>
       </c>
       <c r="E74">
-        <v>-0.005873262438029301</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>0.07062929734927649</v>
+      </c>
+      <c r="F74">
+        <v>-0.01226341454300153</v>
+      </c>
+      <c r="G74">
+        <v>-0.01541717563534717</v>
+      </c>
+      <c r="H74">
+        <v>-0.0184365171244004</v>
+      </c>
+      <c r="I74">
+        <v>-0.01270176108906884</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B75">
-        <v>-0.103896085331552</v>
+        <v>0.07341565154169422</v>
       </c>
       <c r="C75">
-        <v>-0.2503471007608812</v>
+        <v>-0.2155948598375705</v>
       </c>
       <c r="D75">
-        <v>-0.1775861733678459</v>
+        <v>-0.09535715074673677</v>
       </c>
       <c r="E75">
-        <v>-0.06977881240057263</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>0.2175243166572295</v>
+      </c>
+      <c r="F75">
+        <v>-0.08205679701505049</v>
+      </c>
+      <c r="G75">
+        <v>-0.07724193293545728</v>
+      </c>
+      <c r="H75">
+        <v>0.01423609579538122</v>
+      </c>
+      <c r="I75">
+        <v>0.05956512124753239</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B76">
-        <v>-0.04565646958376153</v>
+        <v>0.04126894925107909</v>
       </c>
       <c r="C76">
-        <v>-0.1552421122663394</v>
+        <v>-0.1497823589980406</v>
       </c>
       <c r="D76">
-        <v>-0.08436667867110999</v>
+        <v>-0.07214598821942243</v>
       </c>
       <c r="E76">
-        <v>-0.01885279310351719</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>0.09326087168461616</v>
+      </c>
+      <c r="F76">
+        <v>-0.001102764015629952</v>
+      </c>
+      <c r="G76">
+        <v>0.000630319752518007</v>
+      </c>
+      <c r="H76">
+        <v>-0.02324777368611754</v>
+      </c>
+      <c r="I76">
+        <v>0.00407507068173785</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B77">
-        <v>-0.02173126526074134</v>
+        <v>0.02060973005122822</v>
       </c>
       <c r="C77">
-        <v>-0.1372316553170648</v>
+        <v>-0.2146538850126407</v>
       </c>
       <c r="D77">
-        <v>0.4639750388336902</v>
+        <v>0.9391408718451907</v>
       </c>
       <c r="E77">
-        <v>-0.7975909738560644</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>0.2269170830746369</v>
+      </c>
+      <c r="F77">
+        <v>-0.01998190381710306</v>
+      </c>
+      <c r="G77">
+        <v>0.02980221082696678</v>
+      </c>
+      <c r="H77">
+        <v>-0.04939867580778744</v>
+      </c>
+      <c r="I77">
+        <v>-0.02910396638712274</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B78">
-        <v>-0.01498392599887611</v>
+        <v>0.02240915718416082</v>
       </c>
       <c r="C78">
-        <v>-0.1272359497640916</v>
+        <v>-0.1208091832560271</v>
       </c>
       <c r="D78">
-        <v>0.1222669810512735</v>
+        <v>-0.04346571041967696</v>
       </c>
       <c r="E78">
-        <v>0.07337296510092718</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>-0.07207508375685355</v>
+      </c>
+      <c r="F78">
+        <v>0.01339954802802769</v>
+      </c>
+      <c r="G78">
+        <v>-0.07985714481227162</v>
+      </c>
+      <c r="H78">
+        <v>-0.1425009924687538</v>
+      </c>
+      <c r="I78">
+        <v>-0.1258425340187832</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B79">
-        <v>-0.07221931221846577</v>
+        <v>0.0612755140103755</v>
       </c>
       <c r="C79">
-        <v>-0.3030136635592186</v>
+        <v>-0.2266357020890886</v>
       </c>
       <c r="D79">
-        <v>-0.2089600982458495</v>
+        <v>-0.09403706682797588</v>
       </c>
       <c r="E79">
-        <v>-0.09637714812453614</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
+        <v>0.2410275870785347</v>
+      </c>
+      <c r="F79">
+        <v>-0.01925377201967716</v>
+      </c>
+      <c r="G79">
+        <v>-0.1661834021982244</v>
+      </c>
+      <c r="H79">
+        <v>-0.04185180142178643</v>
+      </c>
+      <c r="I79">
+        <v>0.08595502221407877</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B80">
-        <v>0.01156081084610342</v>
+        <v>0.007277809785270196</v>
       </c>
       <c r="C80">
-        <v>-0.06006914216171198</v>
+        <v>-0.05931291700336661</v>
       </c>
       <c r="D80">
-        <v>0.003142606798223052</v>
+        <v>-0.03131441786353655</v>
       </c>
       <c r="E80">
-        <v>0.04511857819586559</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>-0.05243504600257448</v>
+      </c>
+      <c r="F80">
+        <v>0.07162477208793762</v>
+      </c>
+      <c r="G80">
+        <v>0.04238871836213468</v>
+      </c>
+      <c r="H80">
+        <v>0.03886205905336969</v>
+      </c>
+      <c r="I80">
+        <v>0.04936984430433723</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B81">
-        <v>-0.04210110920229239</v>
+        <v>0.02508874098171777</v>
       </c>
       <c r="C81">
-        <v>-0.1539430553268857</v>
+        <v>-0.134785724206709</v>
       </c>
       <c r="D81">
-        <v>-0.1096088633443182</v>
+        <v>-0.04905775982599463</v>
       </c>
       <c r="E81">
-        <v>-0.05271307594513257</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>0.09910826358841743</v>
+      </c>
+      <c r="F81">
+        <v>-0.01895091648526004</v>
+      </c>
+      <c r="G81">
+        <v>-0.05512739928442154</v>
+      </c>
+      <c r="H81">
+        <v>-0.06461542179176126</v>
+      </c>
+      <c r="I81">
+        <v>0.07031815060844085</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B82">
-        <v>-0.07966248636434453</v>
+        <v>0.05674433447940661</v>
       </c>
       <c r="C82">
-        <v>-0.223124233608366</v>
+        <v>-0.1726243575556303</v>
       </c>
       <c r="D82">
-        <v>-0.1435157082601115</v>
+        <v>-0.08850847868196557</v>
       </c>
       <c r="E82">
-        <v>-0.04184947700138521</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>0.1504400981189193</v>
+      </c>
+      <c r="F82">
+        <v>-0.00104305349776889</v>
+      </c>
+      <c r="G82">
+        <v>-0.0420584760784072</v>
+      </c>
+      <c r="H82">
+        <v>-0.0393888644796789</v>
+      </c>
+      <c r="I82">
+        <v>0.05018125077860987</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B83">
-        <v>0.01273014513780652</v>
+        <v>-0.001606850148382403</v>
       </c>
       <c r="C83">
-        <v>-0.05834071640175182</v>
+        <v>-0.01383501514361633</v>
       </c>
       <c r="D83">
-        <v>0.05948252459709844</v>
+        <v>0.0400806456474626</v>
       </c>
       <c r="E83">
-        <v>0.007842145611329428</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>-0.02991091627834553</v>
+      </c>
+      <c r="F83">
+        <v>0.9125346984350929</v>
+      </c>
+      <c r="G83">
+        <v>-0.2985786158944319</v>
+      </c>
+      <c r="H83">
+        <v>0.01802451221935085</v>
+      </c>
+      <c r="I83">
+        <v>0.1058020867985314</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B84">
-        <v>0.003770928673715084</v>
+        <v>-0.002396963308004015</v>
       </c>
       <c r="C84">
-        <v>-0.02284576586181784</v>
+        <v>-0.03561965913360358</v>
       </c>
       <c r="D84">
-        <v>0.0399334637221115</v>
+        <v>-0.03615062013607417</v>
       </c>
       <c r="E84">
-        <v>0.06231547429019682</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
+        <v>-0.06878206703224028</v>
+      </c>
+      <c r="F84">
+        <v>-0.05156958982978541</v>
+      </c>
+      <c r="G84">
+        <v>-0.05778075336482338</v>
+      </c>
+      <c r="H84">
+        <v>-0.06146508431181986</v>
+      </c>
+      <c r="I84">
+        <v>-0.05310225044948826</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B85">
-        <v>-0.04803318291035846</v>
+        <v>0.03729742217716257</v>
       </c>
       <c r="C85">
-        <v>-0.1792805904192903</v>
+        <v>-0.1514617448411107</v>
       </c>
       <c r="D85">
-        <v>-0.1355796301742951</v>
+        <v>-0.09020584496840318</v>
       </c>
       <c r="E85">
-        <v>-0.0386014651937238</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>0.1552677488454676</v>
+      </c>
+      <c r="F85">
+        <v>-0.01178189709241786</v>
+      </c>
+      <c r="G85">
+        <v>-0.06850218932292687</v>
+      </c>
+      <c r="H85">
+        <v>-0.01831614208131268</v>
+      </c>
+      <c r="I85">
+        <v>0.03706141672147373</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B86">
-        <v>-0.01799108100201789</v>
+        <v>0.01333305449812513</v>
       </c>
       <c r="C86">
-        <v>-0.04361032015169702</v>
+        <v>-0.06936658663483203</v>
       </c>
       <c r="D86">
-        <v>0.09750301756075747</v>
+        <v>0.01885569168617221</v>
       </c>
       <c r="E86">
-        <v>-0.04136084413003811</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>-0.06170102974567768</v>
+      </c>
+      <c r="F86">
+        <v>-0.04707239363140198</v>
+      </c>
+      <c r="G86">
+        <v>-0.07330844750788461</v>
+      </c>
+      <c r="H86">
+        <v>-0.07170924714103456</v>
+      </c>
+      <c r="I86">
+        <v>0.07721526123161872</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B87">
-        <v>-0.01767998535560043</v>
+        <v>0.01409190620132022</v>
       </c>
       <c r="C87">
-        <v>-0.09652790864936017</v>
+        <v>-0.1143342903727062</v>
       </c>
       <c r="D87">
-        <v>0.1522398567987262</v>
+        <v>0.03440806818644432</v>
       </c>
       <c r="E87">
-        <v>0.07250932584114238</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>-0.1199355257557246</v>
+      </c>
+      <c r="F87">
+        <v>-0.02358321164505217</v>
+      </c>
+      <c r="G87">
+        <v>-0.03413465839907111</v>
+      </c>
+      <c r="H87">
+        <v>-0.02176592069103979</v>
+      </c>
+      <c r="I87">
+        <v>-0.1397130214380103</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B88">
-        <v>-0.0205416869455275</v>
+        <v>0.03226942474645375</v>
       </c>
       <c r="C88">
-        <v>-0.08428298079146664</v>
+        <v>-0.08666082956246088</v>
       </c>
       <c r="D88">
-        <v>-0.0485309557802765</v>
+        <v>-0.02736674312319726</v>
       </c>
       <c r="E88">
-        <v>0.009010168769856766</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>0.01345500428062767</v>
+      </c>
+      <c r="F88">
+        <v>-0.003028927298940568</v>
+      </c>
+      <c r="G88">
+        <v>0.02325758146989168</v>
+      </c>
+      <c r="H88">
+        <v>-0.01086622547729925</v>
+      </c>
+      <c r="I88">
+        <v>0.0320490390319526</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B89">
-        <v>-0.4547243365552227</v>
+        <v>0.4130992672256703</v>
       </c>
       <c r="C89">
-        <v>0.1350322447799101</v>
+        <v>0.1259139642216558</v>
       </c>
       <c r="D89">
-        <v>0.0001400761222681976</v>
+        <v>0.01034355413355874</v>
       </c>
       <c r="E89">
-        <v>0.2592099455572337</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>-0.04505907070478763</v>
+      </c>
+      <c r="F89">
+        <v>0.06779219183650942</v>
+      </c>
+      <c r="G89">
+        <v>-0.1044896938304541</v>
+      </c>
+      <c r="H89">
+        <v>-0.05217992935225073</v>
+      </c>
+      <c r="I89">
+        <v>-0.7857599458386049</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B90">
-        <v>-0.3235649695502773</v>
+        <v>0.3237312674445671</v>
       </c>
       <c r="C90">
-        <v>0.0877346456860883</v>
+        <v>0.07719683147805001</v>
       </c>
       <c r="D90">
-        <v>0.09003986399119936</v>
+        <v>0.0266718127951258</v>
       </c>
       <c r="E90">
-        <v>-0.006188726061624863</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>-0.05516126254028596</v>
+      </c>
+      <c r="F90">
+        <v>-0.01314481135119063</v>
+      </c>
+      <c r="G90">
+        <v>-0.01533012289005798</v>
+      </c>
+      <c r="H90">
+        <v>0.01786565199481608</v>
+      </c>
+      <c r="I90">
+        <v>0.1524888906265139</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B91">
-        <v>-0.0576248632366947</v>
+        <v>0.05457611474636424</v>
       </c>
       <c r="C91">
-        <v>-0.1792400313249906</v>
+        <v>-0.1418789067002551</v>
       </c>
       <c r="D91">
-        <v>-0.1130696818308495</v>
+        <v>-0.05100511610831249</v>
       </c>
       <c r="E91">
-        <v>-0.06147816633846964</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>0.1337166779769435</v>
+      </c>
+      <c r="F91">
+        <v>0.02343481375012102</v>
+      </c>
+      <c r="G91">
+        <v>-0.05793574901083279</v>
+      </c>
+      <c r="H91">
+        <v>-0.01305364625908754</v>
+      </c>
+      <c r="I91">
+        <v>0.02828427911200539</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B92">
-        <v>-0.3417673675060863</v>
+        <v>0.3484362655539116</v>
       </c>
       <c r="C92">
-        <v>0.1213034937182468</v>
+        <v>0.1193631817770372</v>
       </c>
       <c r="D92">
-        <v>0.05853088005630806</v>
+        <v>0.05085494577854073</v>
       </c>
       <c r="E92">
-        <v>-0.05532526706015156</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>-0.0489818246186192</v>
+      </c>
+      <c r="F92">
+        <v>-0.09732699307769212</v>
+      </c>
+      <c r="G92">
+        <v>-0.02013044744334778</v>
+      </c>
+      <c r="H92">
+        <v>-0.03911026272449091</v>
+      </c>
+      <c r="I92">
+        <v>0.1670640907255585</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B93">
-        <v>-0.338882972487061</v>
+        <v>0.3275991734012373</v>
       </c>
       <c r="C93">
-        <v>0.0989209242926001</v>
+        <v>0.1083520397913882</v>
       </c>
       <c r="D93">
-        <v>-0.01374431236848652</v>
+        <v>-0.006200524595863611</v>
       </c>
       <c r="E93">
-        <v>-0.02394581538635284</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>0.009354414379784364</v>
+      </c>
+      <c r="F93">
+        <v>-0.02139152426495472</v>
+      </c>
+      <c r="G93">
+        <v>-0.03173178959033272</v>
+      </c>
+      <c r="H93">
+        <v>-0.04089839250514835</v>
+      </c>
+      <c r="I93">
+        <v>0.1039118443675489</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B94">
-        <v>-0.1107841426435582</v>
+        <v>0.09208694418409205</v>
       </c>
       <c r="C94">
-        <v>-0.2989855955002563</v>
+        <v>-0.241063216833788</v>
       </c>
       <c r="D94">
-        <v>-0.2755114572887644</v>
+        <v>-0.1472069903560349</v>
       </c>
       <c r="E94">
-        <v>-0.08190998877596951</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>0.3798261527392046</v>
+      </c>
+      <c r="F94">
+        <v>-0.04266421463109617</v>
+      </c>
+      <c r="G94">
+        <v>-0.2605337699761561</v>
+      </c>
+      <c r="H94">
+        <v>0.1180176616017461</v>
+      </c>
+      <c r="I94">
+        <v>-0.1764984925593948</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B95">
-        <v>-0.03107374972184679</v>
+        <v>0.03460377234932216</v>
       </c>
       <c r="C95">
-        <v>-0.06460362117564471</v>
+        <v>-0.1109655520237601</v>
       </c>
       <c r="D95">
-        <v>0.006520420820136981</v>
+        <v>0.0001565844935747487</v>
       </c>
       <c r="E95">
-        <v>0.02107489150763531</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>-0.03038158857407404</v>
+      </c>
+      <c r="F95">
+        <v>-0.02016964085512146</v>
+      </c>
+      <c r="G95">
+        <v>0.1256234181616601</v>
+      </c>
+      <c r="H95">
+        <v>-0.05883686896353089</v>
+      </c>
+      <c r="I95">
+        <v>-0.008143024327641725</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,44 +3478,80 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>0.003298371321520828</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>-0.006827048214802043</v>
       </c>
       <c r="D97">
-        <v>0</v>
+        <v>0.01902431649522516</v>
       </c>
       <c r="E97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
+        <v>-0.009150029356950811</v>
+      </c>
+      <c r="F97">
+        <v>-0.01558372893503402</v>
+      </c>
+      <c r="G97">
+        <v>0.02185404684647197</v>
+      </c>
+      <c r="H97">
+        <v>-0.003955034157746891</v>
+      </c>
+      <c r="I97">
+        <v>0.02110464263276897</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B98">
-        <v>-0.08133742082250547</v>
+        <v>0.1246528741686772</v>
       </c>
       <c r="C98">
-        <v>-0.1396946354151049</v>
+        <v>-0.1656417602431442</v>
       </c>
       <c r="D98">
-        <v>0.04713707836819395</v>
+        <v>-0.03951175363900047</v>
       </c>
       <c r="E98">
-        <v>0.06876507105710312</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>-0.05269952905105529</v>
+      </c>
+      <c r="F98">
+        <v>0.1022575380804773</v>
+      </c>
+      <c r="G98">
+        <v>0.3758769539108759</v>
+      </c>
+      <c r="H98">
+        <v>0.3237943125250158</v>
+      </c>
+      <c r="I98">
+        <v>-0.02844180135865986</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2377,10 +3565,22 @@
       <c r="E99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,44 +3594,80 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B101">
-        <v>0.002686699252263842</v>
+        <v>0.003075870700022266</v>
       </c>
       <c r="C101">
-        <v>-0.0400163660111346</v>
+        <v>-0.06800272256443221</v>
       </c>
       <c r="D101">
-        <v>0.07037573336301826</v>
+        <v>-0.01001641119141582</v>
       </c>
       <c r="E101">
-        <v>0.08188670323089529</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>-0.1139824465779541</v>
+      </c>
+      <c r="F101">
+        <v>0.040874202098609</v>
+      </c>
+      <c r="G101">
+        <v>0.08213734223414251</v>
+      </c>
+      <c r="H101">
+        <v>-0.2001661157158012</v>
+      </c>
+      <c r="I101">
+        <v>-0.04921135096416806</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B102">
-        <v>-0.03223455628133862</v>
+        <v>0.01330032066371809</v>
       </c>
       <c r="C102">
-        <v>-0.1045879069886744</v>
+        <v>-0.05425024492723478</v>
       </c>
       <c r="D102">
-        <v>-0.06260139262333599</v>
+        <v>-0.02649400128621281</v>
       </c>
       <c r="E102">
-        <v>-0.0192199499622231</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>0.0713833496787115</v>
+      </c>
+      <c r="F102">
+        <v>0.006590456653120428</v>
+      </c>
+      <c r="G102">
+        <v>-0.03683202199642811</v>
+      </c>
+      <c r="H102">
+        <v>-0.001777776754355141</v>
+      </c>
+      <c r="I102">
+        <v>-0.008597415365689812</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2445,10 +3681,22 @@
       <c r="E103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:5">
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2460,6 +3708,18 @@
         <v>0</v>
       </c>
       <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
         <v>0</v>
       </c>
     </row>
